--- a/data/items_deleted.xlsx
+++ b/data/items_deleted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="317">
   <si>
     <t xml:space="preserve">creator_name</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">slot</t>
   </si>
   <si>
+    <t xml:space="preserve">season</t>
+  </si>
+  <si>
     <t xml:space="preserve">sunset</t>
   </si>
   <si>
@@ -800,6 +803,174 @@
   </si>
   <si>
     <t xml:space="preserve">Quickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Summoner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alacrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fourth Horseman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assault Mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broadside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trustee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rapid-Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under Pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Impact Reserves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloudstrike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortal Polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloy Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormbringer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikelos_HC_V1.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikelos_SG_V1.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appended Mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead from Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trench Barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gridskipper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunnel Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occluded Finality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase Magazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolftone Draw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forge’s Pledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dead Messenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinary Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Velocity Rounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come to Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive Munitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lubrae’s Ruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Killing Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swashbuckler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immovable Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classy Contender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snorri FR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmly Planted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omolon Fluid Dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservoir Burst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funnelweb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frenzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nezarec’s Whisper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnabout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrovert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilting at Windmills</t>
   </si>
 </sst>
 </file>
@@ -879,12 +1050,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -905,10 +1080,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AZ51"/>
+  <dimension ref="A1:BA76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A52" activeCellId="0" sqref="A52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,45 +1245,48 @@
       <c r="AZ1" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>61</v>
       </c>
       <c r="S2" s="0" t="s">
@@ -1120,66 +1298,69 @@
       <c r="U2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="V2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="Y2" s="0" t="n">
-        <v>57</v>
-      </c>
       <c r="Z2" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>68</v>
       </c>
       <c r="S3" s="0" t="s">
@@ -1191,66 +1372,69 @@
       <c r="U3" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="V3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="X3" s="0" t="n">
-        <v>53</v>
-      </c>
       <c r="Y3" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="I4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>75</v>
       </c>
       <c r="S4" s="0" t="s">
@@ -1262,212 +1446,221 @@
       <c r="U4" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="V4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>35</v>
-      </c>
-      <c r="Y4" s="0" t="n">
-        <v>40</v>
       </c>
       <c r="Z4" s="0" t="n">
         <v>40</v>
       </c>
       <c r="AA4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="I5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>76</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="I6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>85</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="U6" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="V6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="I7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="T7" s="0" t="s">
         <v>92</v>
@@ -1475,66 +1668,69 @@
       <c r="U7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="V7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="I8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>97</v>
       </c>
       <c r="S8" s="0" t="s">
@@ -1544,143 +1740,149 @@
         <v>99</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="Y8" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Y8" s="0" t="n">
+      <c r="Z8" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="Z8" s="0" t="n">
+      <c r="AA8" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AA8" s="0" t="n">
+      <c r="AB8" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AG8" s="0" t="n">
+      <c r="AH8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AJ8" s="0" t="n">
+      <c r="AK8" s="0" t="n">
         <v>780</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="I9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>103</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="W9" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG9" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="I10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>103</v>
+      <c r="P10" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T10" s="0" t="s">
         <v>109</v>
@@ -1688,481 +1890,502 @@
       <c r="U10" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="V10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>533</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="I11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>114</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="U11" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="V11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="I12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="T12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12" s="0" t="s">
         <v>120</v>
       </c>
       <c r="U12" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="V12" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="X12" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="I13" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>120</v>
       </c>
       <c r="U13" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="V13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="I14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="T14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>129</v>
       </c>
       <c r="U14" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="V14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" s="0" t="n">
         <v>70</v>
-      </c>
-      <c r="X14" s="0" t="n">
-        <v>68</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>68</v>
       </c>
       <c r="Z14" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA14" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="I15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>133</v>
       </c>
       <c r="U15" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="V15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="I16" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="0" t="s">
         <v>137</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="V16" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X16" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="I17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" s="0" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>141</v>
@@ -2170,205 +2393,214 @@
       <c r="V17" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="W17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X17" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>491</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="I18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" s="0" t="s">
-        <v>145</v>
+        <v>60</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U18" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="V18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z18" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="I19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>148</v>
+        <v>60</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="V19" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X19" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="AA19" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG19" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="I20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="T20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="0" t="s">
         <v>152</v>
       </c>
       <c r="U20" s="0" t="s">
@@ -2377,508 +2609,529 @@
       <c r="V20" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="W20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="X20" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>33</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>24</v>
       </c>
       <c r="AA20" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="W21" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="T21" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="U21" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="I22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="T22" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="V22" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="W22" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X22" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="0" t="s">
+      <c r="Z23" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M23" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T23" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="U23" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="I24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T24" s="0" t="s">
-        <v>148</v>
+        <v>60</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="W24" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X24" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="Y24" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="Y24" s="0" t="n">
+      <c r="Z24" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Z24" s="0" t="n">
+      <c r="AA24" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="AF24" s="0" t="n">
+      <c r="AG24" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="AG24" s="0" t="n">
+      <c r="AH24" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="I25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T25" s="0" t="s">
-        <v>166</v>
+        <v>60</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y25" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="I26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>158</v>
+        <v>60</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="S26" s="0" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="W26" s="0" t="n">
+      <c r="W26" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X26" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="Y26" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="Y26" s="0" t="n">
+      <c r="Z26" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="Z26" s="0" t="n">
+      <c r="AA26" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AF26" s="0" t="n">
+      <c r="AG26" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="AG26" s="0" t="n">
+      <c r="AH26" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="I27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T27" s="0" t="s">
-        <v>174</v>
+        <v>60</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U27" s="0" t="s">
         <v>175</v>
@@ -2886,499 +3139,520 @@
       <c r="V27" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="W27" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X27" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="AA27" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI27" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>580</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="I28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T28" s="0" t="s">
-        <v>170</v>
+        <v>60</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U28" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="W28" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="V28" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="AA28" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI28" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>576</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z29" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T29" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="U29" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="0" t="n">
+      <c r="AA29" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AA29" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AB29" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI29" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I30" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T30" s="0" t="s">
-        <v>121</v>
+        <v>60</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="V30" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="W30" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Z30" s="0" t="n">
-        <v>57</v>
-      </c>
       <c r="AA30" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG30" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T31" s="0" t="s">
-        <v>184</v>
+        <v>60</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="U31" s="0" t="s">
         <v>185</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="W31" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X31" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AA31" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG31" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I32" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q32" s="0" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="W32" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X32" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I33" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="S33" s="0" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="U33" s="0" t="s">
         <v>190</v>
       </c>
       <c r="V33" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="W33" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X33" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="Y33" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="Y33" s="0" t="n">
+      <c r="Z33" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="Z33" s="0" t="n">
+      <c r="AA33" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AA33" s="0" t="n">
+      <c r="AB33" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AF33" s="0" t="n">
+      <c r="AG33" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AG33" s="0" t="n">
+      <c r="AH33" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q34" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="S34" s="0" t="s">
-        <v>192</v>
+        <v>60</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="T34" s="0" t="s">
         <v>193</v>
@@ -3389,135 +3663,141 @@
       <c r="V34" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="Y34" s="0" t="n">
+      <c r="W34" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z34" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="Z34" s="0" t="n">
+      <c r="AA34" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AA34" s="0" t="n">
+      <c r="AB34" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="AF34" s="0" t="n">
+      <c r="AG34" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG34" s="0" t="n">
+      <c r="AH34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL34" s="0" t="n">
+      <c r="AM34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AM34" s="0" t="n">
+      <c r="AN34" s="0" t="n">
         <v>68</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>156</v>
+        <v>60</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U35" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W35" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="V35" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y35" s="0" t="n">
+      <c r="Z35" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="Z35" s="0" t="n">
+      <c r="AA35" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="AA35" s="0" t="n">
+      <c r="AB35" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="AF35" s="0" t="n">
+      <c r="AG35" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG35" s="0" t="n">
+      <c r="AH35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL35" s="0" t="n">
+      <c r="AM35" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="AM35" s="0" t="n">
+      <c r="AN35" s="0" t="n">
         <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="T36" s="0" t="s">
-        <v>198</v>
+        <v>60</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="U36" s="0" t="s">
         <v>199</v>
@@ -3525,211 +3805,220 @@
       <c r="V36" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="W36" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="X36" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="X36" s="0" t="n">
-        <v>53</v>
-      </c>
       <c r="Y36" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z36" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="Z36" s="0" t="n">
+      <c r="AA36" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="AA36" s="0" t="n">
+      <c r="AB36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="AF36" s="0" t="n">
+      <c r="AG36" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="AG36" s="0" t="n">
+      <c r="AH36" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="0" t="s">
         <v>59</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="I37" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>202</v>
+        <v>60</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="U37" s="0" t="s">
         <v>203</v>
       </c>
       <c r="V37" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="W37" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="X37" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="X37" s="0" t="n">
+      <c r="Y37" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="Y37" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="Z37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="AA37" s="0" t="n">
+      <c r="AB37" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="AF37" s="0" t="n">
+      <c r="AG37" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="AG37" s="0" t="n">
+      <c r="AH37" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="O38" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="R38" s="0" t="s">
-        <v>85</v>
+      <c r="P38" s="0" t="s">
+        <v>208</v>
       </c>
       <c r="S38" s="0" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
       <c r="T38" s="0" t="s">
         <v>209</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="W38" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="V38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X38" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="X38" s="0" t="n">
-        <v>70</v>
       </c>
       <c r="Y38" s="0" t="n">
         <v>70</v>
       </c>
       <c r="Z38" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA38" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AA38" s="0" t="n">
+      <c r="AB38" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AF38" s="0" t="n">
+      <c r="AG38" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="AG38" s="0" t="n">
+      <c r="AH38" s="0" t="n">
         <v>101</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="R39" s="0" t="s">
+      <c r="P39" s="0" t="s">
         <v>213</v>
       </c>
       <c r="S39" s="0" t="s">
@@ -3741,69 +4030,72 @@
       <c r="U39" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="V39" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="X39" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="X39" s="0" t="n">
+      <c r="Y39" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="Y39" s="0" t="n">
+      <c r="Z39" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="Z39" s="0" t="n">
+      <c r="AA39" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AA39" s="0" t="n">
+      <c r="AB39" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="AG39" s="0" t="n">
+      <c r="AH39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="AJ39" s="0" t="n">
+      <c r="AK39" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="R40" s="0" t="s">
+      <c r="P40" s="0" t="s">
         <v>220</v>
       </c>
       <c r="S40" s="0" t="s">
@@ -3813,509 +4105,530 @@
         <v>222</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y40" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="V40" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z40" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="Z40" s="0" t="n">
+      <c r="AA40" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="AA40" s="0" t="n">
+      <c r="AB40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="AF40" s="0" t="n">
+      <c r="AG40" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AG40" s="0" t="n">
+      <c r="AH40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="AL40" s="0" t="n">
+      <c r="AM40" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AM40" s="0" t="n">
+      <c r="AN40" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="R41" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="S41" s="0" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="T41" s="0" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="W41" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="X41" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="X41" s="0" t="n">
+      <c r="Y41" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="Y41" s="0" t="n">
+      <c r="Z41" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="Z41" s="0" t="n">
+      <c r="AA41" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="AA41" s="0" t="n">
+      <c r="AB41" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="AF41" s="0" t="n">
+      <c r="AG41" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="AG41" s="0" t="n">
+      <c r="AH41" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="R42" s="0" t="s">
-        <v>85</v>
+        <v>212</v>
+      </c>
+      <c r="P42" s="0" t="s">
+        <v>228</v>
       </c>
       <c r="S42" s="0" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="T42" s="0" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="W42" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="V42" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="X42" s="0" t="n">
+      <c r="Y42" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="Y42" s="0" t="n">
+      <c r="Z42" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="Z42" s="0" t="n">
+      <c r="AA42" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AA42" s="0" t="n">
+      <c r="AB42" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AF42" s="0" t="n">
+      <c r="AG42" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="AG42" s="0" t="n">
+      <c r="AH42" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D43" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T43" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z43" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="R43" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="S43" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="T43" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="U43" s="0" t="s">
+      <c r="AA43" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="W43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="X43" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y43" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z43" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="AA43" s="0" t="n">
+      <c r="AB43" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AF43" s="0" t="n">
+      <c r="AG43" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="AG43" s="0" t="n">
+      <c r="AH43" s="0" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="R44" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>234</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>235</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="W44" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="X44" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="X44" s="0" t="n">
+      <c r="Y44" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Y44" s="0" t="n">
+      <c r="Z44" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="Z44" s="0" t="n">
+      <c r="AA44" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="AA44" s="0" t="n">
+      <c r="AB44" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AG44" s="0" t="n">
+      <c r="AH44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="AJ44" s="0" t="n">
+      <c r="AK44" s="0" t="n">
         <v>820</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q45" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="T45" s="0" t="s">
-        <v>237</v>
+        <v>60</v>
+      </c>
+      <c r="O45" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="U45" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="W45" s="0" t="n">
-        <v>60</v>
+      <c r="V45" s="0" t="s">
+        <v>239</v>
       </c>
       <c r="X45" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y45" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Y45" s="0" t="n">
+      <c r="Z45" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="Z45" s="0" t="n">
+      <c r="AA45" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="AA45" s="0" t="n">
+      <c r="AB45" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="AF45" s="0" t="n">
+      <c r="AG45" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AG45" s="0" t="n">
+      <c r="AH45" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="R46" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>241</v>
       </c>
       <c r="S46" s="0" t="s">
         <v>214</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="W46" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="X46" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="X46" s="0" t="n">
+      <c r="Y46" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Y46" s="0" t="n">
-        <v>54</v>
-      </c>
       <c r="Z46" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA46" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AA46" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF46" s="0" t="n">
+      <c r="AB46" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG46" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="AG46" s="0" t="n">
+      <c r="AH46" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="R47" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="P47" s="0" t="s">
         <v>244</v>
       </c>
       <c r="S47" s="0" t="s">
@@ -4324,292 +4637,304 @@
       <c r="T47" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="W47" s="0" t="n">
+      <c r="U47" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X47" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="Y47" s="0" t="n">
+      <c r="Z47" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="Z47" s="0" t="n">
+      <c r="AA47" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="AA47" s="0" t="n">
+      <c r="AB47" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="AH47" s="0" t="n">
+      <c r="AI47" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="AI47" s="0" t="n">
+      <c r="AJ47" s="0" t="n">
         <v>684</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="R48" s="0" t="s">
-        <v>85</v>
+        <v>212</v>
+      </c>
+      <c r="P48" s="0" t="s">
+        <v>249</v>
       </c>
       <c r="S48" s="0" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="T48" s="0" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="W48" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X48" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="X48" s="0" t="n">
+      <c r="Y48" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="Y48" s="0" t="n">
+      <c r="Z48" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="Z48" s="0" t="n">
+      <c r="AA48" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AA48" s="0" t="n">
+      <c r="AB48" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="AF48" s="0" t="n">
+      <c r="AG48" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="AG48" s="0" t="n">
+      <c r="AH48" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P49" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T49" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z49" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="R49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="S49" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="T49" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="U49" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="W49" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="X49" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y49" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z49" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="AA49" s="0" t="n">
+      <c r="AB49" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AF49" s="0" t="n">
+      <c r="AG49" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="AG49" s="0" t="n">
+      <c r="AH49" s="0" t="n">
         <v>194</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>59</v>
+        <v>34</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>119</v>
+        <v>60</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>255</v>
       </c>
       <c r="T50" s="0" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="W50" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="V50" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X50" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="Y50" s="0" t="n">
+      <c r="Z50" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="Z50" s="0" t="n">
+      <c r="AA50" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="AA50" s="0" t="n">
+      <c r="AB50" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AH50" s="0" t="n">
+      <c r="AI50" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="AI50" s="0" t="n">
+      <c r="AJ50" s="0" t="n">
         <v>612</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>59</v>
+        <v>206</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="M51" s="0" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q51" s="0" t="s">
-        <v>136</v>
+        <v>60</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="S51" s="0" t="s">
         <v>258</v>
@@ -4618,28 +4943,1914 @@
         <v>259</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="W51" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="V51" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X51" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="X51" s="0" t="n">
+      <c r="Y51" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="Y51" s="0" t="n">
+      <c r="Z51" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="Z51" s="0" t="n">
-        <v>54</v>
-      </c>
       <c r="AA51" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AB51" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AF51" s="0" t="n">
+      <c r="AG51" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="AG51" s="0" t="n">
+      <c r="AH51" s="0" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V52" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA52" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB52" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG52" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH52" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z53" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA53" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB53" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG53" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH53" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N54" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V54" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z54" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA54" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB54" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG54" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH54" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z55" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA55" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB55" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG55" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH55" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U56" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA56" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB56" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG56" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH56" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="U57" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z57" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA57" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AB57" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG57" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH57" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U58" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z58" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA58" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB58" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG58" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH58" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U59" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="V59" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="W59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA59" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB59" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG59" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH59" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N60" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="U60" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V60" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z60" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB60" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG60" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH60" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U61" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z61" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA61" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB61" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI61" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ61" s="0" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V62" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z62" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA62" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AB62" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG62" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH62" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="T63" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="U63" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="V63" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA63" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB63" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG63" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM63" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN63" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O64" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R64" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U64" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="V64" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="W64" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="X64" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y64" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z64" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA64" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB64" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG64" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH64" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N65" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O65" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R65" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U65" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V65" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X65" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA65" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB65" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG65" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL65" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U66" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="V66" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="W66" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X66" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y66" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA66" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB66" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG66" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL66" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N67" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O67" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R67" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="U67" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="V67" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="W67" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z67" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA67" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB67" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="AG67" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM67" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN67" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O68" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R68" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U68" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="V68" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="W68" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="X68" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y68" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z68" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA68" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB68" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG68" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH68" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U69" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V69" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W69" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="X69" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y69" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z69" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA69" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB69" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG69" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH69" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R70" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U70" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="V70" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="W70" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="X70" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y70" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z70" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA70" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB70" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK70" s="0" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N71" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O71" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R71" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U71" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="V71" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="W71" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="X71" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z71" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA71" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB71" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH71" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK71" s="0" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N72" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R72" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U72" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="V72" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="W72" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="X72" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="Y72" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z72" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA72" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB72" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK72" s="0" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R73" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T73" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U73" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V73" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W73" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X73" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y73" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z73" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA73" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB73" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG73" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH73" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R74" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U74" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="V74" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="W74" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y74" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z74" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA74" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB74" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG74" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH74" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R75" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U75" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V75" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="W75" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="X75" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y75" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG75" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH75" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL75" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N76" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O76" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R76" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U76" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="V76" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="W76" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="X76" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y76" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA76" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB76" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG76" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH76" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL76" s="0" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4694,6 +6905,31 @@
     <hyperlink ref="B49" r:id="rId48" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
     <hyperlink ref="B50" r:id="rId49" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
     <hyperlink ref="B51" r:id="rId50" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data/items_deleted.xlsx
+++ b/data/items_deleted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="434">
   <si>
     <t xml:space="preserve">creator_name</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">category</t>
+    <t xml:space="preserve">category/class</t>
   </si>
   <si>
     <t xml:space="preserve">slot</t>
@@ -971,6 +971,357 @@
   </si>
   <si>
     <t xml:space="preserve">Tilting at Windmills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trespasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unrepentant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Bore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be The Danger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doom of Chelchis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye of the Storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaouli’s Bane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarnished Mettle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steady Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechabre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple Tap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Distractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slickdraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutshot Straight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Quiet Moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wardcliff Coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocket Launcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatile Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanized Autoloader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisper of the Worm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Nail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whispered Breathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc Traps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deathbringer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Deliverance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloy Casing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Descent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvation’s Grip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryocannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Compensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash Freeze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OGMA PR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staccato-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hero of Ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enduring Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Garde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassin’s Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typhon GL5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosive Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stats for All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmyra-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Häkke Precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chill Clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Herring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Prep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Odds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firing Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Excess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangled Web Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodigal Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clutch Extol Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photosuede Helmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketchkiller’s Mask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plunderer’s Trappings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airhead Hood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Forerunner Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Lord’s Pride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloak of Retelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AscendantNomad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=YkVa7_QfHgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattering Bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill Clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Supremacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dust Rock Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slideshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redrix’s Broadsword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desperado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mountaintop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro-Missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lonesome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversal of Fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accrued Redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loud Lullaby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braytech Werewolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Front</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dire Promise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Prophecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biting Winds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bray Inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual Loader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recombination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye of Sol (Adept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Denial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Messenger (Adept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Time-Worn Spire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chroma Rush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignition Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praedyth’s Revenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praedyth’s Revenge (Timelost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riiswalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hung Jury SR4 (Adept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survivor’s Epitaph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulpecula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Action II</t>
   </si>
 </sst>
 </file>
@@ -1055,11 +1406,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,6 +1423,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1080,10 +1440,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA76"/>
+  <dimension ref="A1:BA161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,7 +1470,7 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -1253,7 +1613,7 @@
       <c r="A2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1327,7 +1687,7 @@
       <c r="A3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1401,7 +1761,7 @@
       <c r="A4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1475,7 +1835,7 @@
       <c r="A5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1549,7 +1909,7 @@
       <c r="A6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1623,7 +1983,7 @@
       <c r="A7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -1697,7 +2057,7 @@
       <c r="A8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1771,7 +2131,7 @@
       <c r="A9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -1842,7 +2202,7 @@
       <c r="A10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -1861,7 +2221,7 @@
         <v>59</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>60</v>
@@ -1922,7 +2282,7 @@
       <c r="A11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -1999,7 +2359,7 @@
       <c r="A12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -2067,7 +2427,7 @@
       <c r="A13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -2138,7 +2498,7 @@
       <c r="A14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -2209,7 +2569,7 @@
       <c r="A15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -2277,7 +2637,7 @@
       <c r="A16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -2296,7 +2656,7 @@
         <v>59</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>60</v>
@@ -2348,7 +2708,7 @@
       <c r="A17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -2422,7 +2782,7 @@
       <c r="A18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -2493,7 +2853,7 @@
       <c r="A19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -2564,7 +2924,7 @@
       <c r="A20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -2638,7 +2998,7 @@
       <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -2715,7 +3075,7 @@
       <c r="A22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -2789,7 +3149,7 @@
       <c r="A23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -2866,7 +3226,7 @@
       <c r="A24" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -2940,7 +3300,7 @@
       <c r="A25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -3014,7 +3374,7 @@
       <c r="A26" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -3094,7 +3454,7 @@
       <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -3165,7 +3525,7 @@
       <c r="A28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -3236,7 +3596,7 @@
       <c r="A29" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -3304,7 +3664,7 @@
       <c r="A30" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -3381,7 +3741,7 @@
       <c r="A31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -3452,7 +3812,7 @@
       <c r="A32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -3535,7 +3895,7 @@
       <c r="A33" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -3618,7 +3978,7 @@
       <c r="A34" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -3692,7 +4052,7 @@
       <c r="A35" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -3763,7 +4123,7 @@
       <c r="A36" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -3834,7 +4194,7 @@
       <c r="A37" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -3905,7 +4265,7 @@
       <c r="A38" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -3982,7 +4342,7 @@
       <c r="A39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -4059,7 +4419,7 @@
       <c r="A40" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -4136,7 +4496,7 @@
       <c r="A41" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -4213,7 +4573,7 @@
       <c r="A42" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -4290,7 +4650,7 @@
       <c r="A43" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -4370,7 +4730,7 @@
       <c r="A44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -4444,7 +4804,7 @@
       <c r="A45" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -4515,7 +4875,7 @@
       <c r="A46" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -4592,7 +4952,7 @@
       <c r="A47" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -4663,7 +5023,7 @@
       <c r="A48" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -4740,7 +5100,7 @@
       <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -4817,7 +5177,7 @@
       <c r="A50" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -4894,7 +5254,7 @@
       <c r="A51" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -4971,10 +5331,10 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A52" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -5045,10 +5405,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -5122,10 +5482,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -5199,10 +5559,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="A55" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -5276,10 +5636,10 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="A56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -5347,10 +5707,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -5424,10 +5784,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -5446,7 +5806,7 @@
         <v>206</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>60</v>
@@ -5495,10 +5855,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -5569,10 +5929,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -5591,7 +5951,7 @@
         <v>206</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>60</v>
@@ -5646,10 +6006,10 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -5714,10 +6074,10 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="A62" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -5788,10 +6148,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="A63" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -5865,10 +6225,10 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="A64" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -5942,10 +6302,10 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -6019,10 +6379,10 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -6096,10 +6456,10 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="A67" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -6173,10 +6533,10 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="A68" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -6247,10 +6607,10 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -6324,10 +6684,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -6398,10 +6758,10 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="A71" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -6472,10 +6832,10 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -6546,10 +6906,10 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="A73" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="0" t="s">
@@ -6626,10 +6986,10 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="A74" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="0" t="s">
@@ -6700,10 +7060,10 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="1" t="s">
+      <c r="A75" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="0" t="s">
@@ -6777,10 +7137,10 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="A76" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -6851,6 +7211,5719 @@
       </c>
       <c r="AL76" s="0" t="n">
         <v>42</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P77" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="T77" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U77" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="V77" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="X77" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y77" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z77" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA77" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB77" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG77" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="AH77" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z78" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA78" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB78" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG78" s="0" t="n">
+        <v>491</v>
+      </c>
+      <c r="AH78" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N79" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O79" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R79" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U79" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="V79" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W79" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X79" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y79" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z79" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA79" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB79" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG79" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH79" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="V80" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="W80" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X80" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y80" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z80" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA80" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB80" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG80" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH80" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T81" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U81" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="V81" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="W81" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X81" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y81" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z81" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA81" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG81" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH81" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R82" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U82" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V82" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="W82" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X82" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y82" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z82" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG82" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH82" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R83" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U83" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V83" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="W83" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X83" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y83" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z83" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG83" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH83" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R84" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U84" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="V84" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W84" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X84" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y84" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z84" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA84" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB84" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG84" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH84" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U85" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="V85" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="W85" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X85" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z85" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA85" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB85" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG85" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH85" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U86" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V86" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="W86" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X86" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y86" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z86" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA86" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB86" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG86" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH86" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U87" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V87" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="W87" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X87" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y87" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z87" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA87" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB87" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG87" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH87" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="V88" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="W88" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X88" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y88" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z88" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA88" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB88" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG88" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH88" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R89" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U89" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V89" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W89" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X89" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y89" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z89" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA89" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB89" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG89" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH89" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R90" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U90" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V90" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="W90" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X90" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y90" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z90" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA90" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB90" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG90" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH90" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O91" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R91" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U91" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V91" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="W91" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X91" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y91" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z91" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA91" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB91" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG91" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH91" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="T92" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="U92" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="V92" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z92" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA92" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB92" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG92" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM92" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN92" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T93" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U93" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="V93" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="X93" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y93" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z93" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA93" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB93" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG93" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH93" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="T94" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="U94" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V94" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z94" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA94" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB94" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AG94" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH94" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM94" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN94" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="T95" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="U95" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="V95" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z95" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA95" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB95" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG95" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM95" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN95" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="T96" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="U96" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="V96" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z96" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA96" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB96" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG96" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH96" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM96" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN96" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R97" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U97" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="V97" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="W97" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="X97" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y97" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z97" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA97" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AB97" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG97" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH97" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R98" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U98" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="V98" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="W98" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="X98" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y98" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z98" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA98" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB98" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG98" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH98" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="T99" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="U99" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="V99" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="X99" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO99" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP99" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR99" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS99" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT99" s="0" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="T100" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="U100" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="X100" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AO100" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP100" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ100" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR100" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS100" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AT100" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R101" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="T101" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="U101" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V101" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="W101" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z101" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA101" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB101" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG101" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH101" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM101" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN101" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R102" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U102" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="V102" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="W102" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z102" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA102" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB102" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG102" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH102" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM102" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN102" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R103" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="U103" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V103" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="W103" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z103" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA103" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB103" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG103" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM103" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN103" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R104" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="U104" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V104" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="W104" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z104" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA104" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB104" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG104" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM104" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN104" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R105" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U105" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="V105" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W105" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z105" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA105" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB105" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG105" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM105" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN105" s="0" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R106" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="T106" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="U106" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V106" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="W106" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="X106" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y106" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z106" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA106" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB106" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG106" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH106" s="0" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R107" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T107" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="U107" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V107" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="W107" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="X107" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y107" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z107" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA107" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB107" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG107" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH107" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU108" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV108" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW108" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX108" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY108" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA108" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU109" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW109" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX109" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ109" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA109" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU110" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV110" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW110" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX110" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ110" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA110" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AU111" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW111" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY111" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ111" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA111" s="0" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV112" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW112" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX112" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ112" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA112" s="0" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="W113" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU113" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV113" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW113" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX113" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY113" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ113" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA113" s="0" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="W114" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV114" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW114" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX114" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY114" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA114" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="W119" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="W120" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="W121" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="W122" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="W123" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="W124" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U127" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="V127" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="X127" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y127" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z127" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA127" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB127" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AG127" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH127" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U128" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V128" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X128" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y128" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z128" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA128" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB128" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG128" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH128" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U129" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="V129" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="X129" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y129" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z129" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA129" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB129" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG129" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH129" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U130" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V130" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X130" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y130" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z130" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA130" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB130" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG130" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH130" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="T131" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U131" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V131" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="X131" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y131" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z131" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA131" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB131" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG131" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH131" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L132" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="R132" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U132" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="V132" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z132" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA132" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AB132" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AM132" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN132" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N133" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R133" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U133" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="V133" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X133" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y133" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z133" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA133" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB133" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG133" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH133" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L134" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N134" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="R134" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="T134" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U134" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="V134" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="X134" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y134" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z134" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA134" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB134" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG134" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH134" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R135" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U135" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="X135" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z135" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA135" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB135" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI135" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AJ135" s="0" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G136" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I136" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J136" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L136" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N136" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R136" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U136" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V136" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="X136" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y136" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="Z136" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA136" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB136" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG136" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH136" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G137" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I137" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J137" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L137" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N137" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R137" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U137" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V137" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X137" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y137" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z137" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA137" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB137" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG137" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH137" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I138" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J138" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L138" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N138" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R138" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U138" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V138" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X138" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y138" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z138" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA138" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB138" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG138" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH138" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I139" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J139" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L139" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N139" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R139" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U139" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="V139" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="X139" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y139" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z139" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA139" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB139" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG139" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH139" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I140" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J140" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L140" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N140" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R140" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U140" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="V140" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="X140" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y140" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z140" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA140" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB140" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AG140" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH140" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I141" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J141" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L141" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N141" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R141" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U141" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="V141" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X141" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y141" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z141" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA141" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB141" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG141" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH141" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I142" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J142" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L142" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N142" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R142" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U142" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="V142" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="X142" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z142" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA142" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB142" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI142" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AJ142" s="0" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I143" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J143" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L143" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M143" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N143" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R143" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U143" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V143" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="W143" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="X143" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y143" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z143" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA143" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB143" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG143" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH143" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L144" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M144" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N144" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R144" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U144" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="V144" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X144" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y144" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z144" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA144" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB144" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG144" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH144" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I145" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J145" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L145" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M145" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U145" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="V145" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="X145" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z145" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA145" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB145" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG145" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH145" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I146" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J146" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L146" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M146" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N146" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U146" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="V146" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X146" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y146" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="Z146" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA146" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB146" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG146" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH146" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I147" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J147" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L147" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N147" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U147" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="V147" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="W147" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X147" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z147" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA147" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB147" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG147" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH147" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N148" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R148" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U148" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V148" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X148" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y148" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z148" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA148" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB148" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG148" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH148" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I149" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J149" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L149" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N149" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R149" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U149" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V149" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W149" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X149" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y149" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z149" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA149" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB149" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG149" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH149" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I150" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J150" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L150" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N150" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R150" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U150" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V150" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y150" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z150" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA150" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB150" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG150" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH150" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I151" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J151" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R151" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U151" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V151" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X151" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y151" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z151" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA151" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AB151" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG151" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH151" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I152" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J152" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L152" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N152" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R152" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U152" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V152" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X152" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y152" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z152" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA152" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB152" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG152" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AH152" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I153" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J153" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L153" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N153" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R153" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S153" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="T153" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="U153" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="V153" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z153" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA153" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB153" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG153" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN153" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I154" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J154" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N154" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R154" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U154" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V154" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X154" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y154" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z154" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA154" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB154" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG154" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH154" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I155" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J155" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L155" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N155" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R155" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U155" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V155" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="X155" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y155" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z155" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA155" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB155" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG155" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH155" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I156" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J156" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N156" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R156" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U156" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="V156" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="W156" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X156" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y156" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z156" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA156" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB156" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG156" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH156" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I157" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J157" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L157" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N157" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R157" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U157" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V157" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="X157" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y157" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z157" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA157" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB157" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AG157" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH157" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J158" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N158" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R158" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U158" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V158" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W158" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X158" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y158" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z158" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA158" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG158" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH158" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I159" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J159" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L159" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N159" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R159" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U159" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V159" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="X159" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y159" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z159" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA159" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB159" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG159" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH159" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I160" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J160" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L160" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N160" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O160" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R160" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U160" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V160" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="X160" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y160" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z160" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA160" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB160" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG160" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH160" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I161" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J161" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L161" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N161" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R161" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U161" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V161" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X161" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y161" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z161" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA161" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB161" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG161" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH161" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6930,6 +13003,91 @@
     <hyperlink ref="B74" r:id="rId73" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
     <hyperlink ref="B75" r:id="rId74" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
     <hyperlink ref="B76" r:id="rId75" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B116" r:id="rId115" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B117" r:id="rId116" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B118" r:id="rId117" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B119" r:id="rId118" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B120" r:id="rId119" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B121" r:id="rId120" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B122" r:id="rId121" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B123" r:id="rId122" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B124" r:id="rId123" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B125" r:id="rId124" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B126" r:id="rId125" display="https://www.youtube.com/watch?v=bi2CkdMV9N0"/>
+    <hyperlink ref="B127" r:id="rId126" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B128" r:id="rId127" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B129" r:id="rId128" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B130" r:id="rId129" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B131" r:id="rId130" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B132" r:id="rId131" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B133" r:id="rId132" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B134" r:id="rId133" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B135" r:id="rId134" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B136" r:id="rId135" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B137" r:id="rId136" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B138" r:id="rId137" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B139" r:id="rId138" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B140" r:id="rId139" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B141" r:id="rId140" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B142" r:id="rId141" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B143" r:id="rId142" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B146" r:id="rId145" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B147" r:id="rId146" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B148" r:id="rId147" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B149" r:id="rId148" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B150" r:id="rId149" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B151" r:id="rId150" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B152" r:id="rId151" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B153" r:id="rId152" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B154" r:id="rId153" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B155" r:id="rId154" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B156" r:id="rId155" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B157" r:id="rId156" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B158" r:id="rId157" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B159" r:id="rId158" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B160" r:id="rId159" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B161" r:id="rId160" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data/items_deleted.xlsx
+++ b/data/items_deleted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="462">
   <si>
     <t xml:space="preserve">creator_name</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">category/class</t>
+    <t xml:space="preserve">class</t>
   </si>
   <si>
     <t xml:space="preserve">slot</t>
@@ -1322,6 +1322,90 @@
   </si>
   <si>
     <t xml:space="preserve">Legal Action II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scathelocke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shepherd’s Watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyasluna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herod-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gun and Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deliverance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckless Endangerment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perses-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tears of Contrition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enyo-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile Bowstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straight Fletching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defiance of Yasmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood Feud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whistler’s Whim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cornered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Frosty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawning Surprise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jararaca-3SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prolonged Engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waking Vigil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourth Time’s the Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Long Goodbye</t>
   </si>
 </sst>
 </file>
@@ -1406,11 +1490,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1440,10 +1524,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA161"/>
+  <dimension ref="A1:BA201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1470,7 +1554,7 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -1613,7 +1697,7 @@
       <c r="A2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -1687,7 +1771,7 @@
       <c r="A3" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1761,7 +1845,7 @@
       <c r="A4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1835,7 +1919,7 @@
       <c r="A5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1909,7 +1993,7 @@
       <c r="A6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -1983,7 +2067,7 @@
       <c r="A7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2057,7 +2141,7 @@
       <c r="A8" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2131,7 +2215,7 @@
       <c r="A9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -2202,7 +2286,7 @@
       <c r="A10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -2282,7 +2366,7 @@
       <c r="A11" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -2359,7 +2443,7 @@
       <c r="A12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -2427,7 +2511,7 @@
       <c r="A13" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -2498,7 +2582,7 @@
       <c r="A14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -2569,7 +2653,7 @@
       <c r="A15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -2637,7 +2721,7 @@
       <c r="A16" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -2708,7 +2792,7 @@
       <c r="A17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -2782,7 +2866,7 @@
       <c r="A18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -2853,7 +2937,7 @@
       <c r="A19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -2924,7 +3008,7 @@
       <c r="A20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -2998,7 +3082,7 @@
       <c r="A21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -3075,7 +3159,7 @@
       <c r="A22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -3149,7 +3233,7 @@
       <c r="A23" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -3226,7 +3310,7 @@
       <c r="A24" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -3300,7 +3384,7 @@
       <c r="A25" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -3374,7 +3458,7 @@
       <c r="A26" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -3454,7 +3538,7 @@
       <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -3525,7 +3609,7 @@
       <c r="A28" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -3596,7 +3680,7 @@
       <c r="A29" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -3664,7 +3748,7 @@
       <c r="A30" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -3741,7 +3825,7 @@
       <c r="A31" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -3812,7 +3896,7 @@
       <c r="A32" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -3895,7 +3979,7 @@
       <c r="A33" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -3978,7 +4062,7 @@
       <c r="A34" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -4052,7 +4136,7 @@
       <c r="A35" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -4123,7 +4207,7 @@
       <c r="A36" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -4194,7 +4278,7 @@
       <c r="A37" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -4265,7 +4349,7 @@
       <c r="A38" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -4342,7 +4426,7 @@
       <c r="A39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -4419,7 +4503,7 @@
       <c r="A40" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -4496,7 +4580,7 @@
       <c r="A41" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -4573,7 +4657,7 @@
       <c r="A42" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -4650,7 +4734,7 @@
       <c r="A43" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -4730,7 +4814,7 @@
       <c r="A44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -4804,7 +4888,7 @@
       <c r="A45" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -4875,7 +4959,7 @@
       <c r="A46" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -4952,7 +5036,7 @@
       <c r="A47" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -5023,7 +5107,7 @@
       <c r="A48" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -5100,7 +5184,7 @@
       <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -5177,7 +5261,7 @@
       <c r="A50" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -5254,7 +5338,7 @@
       <c r="A51" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -5334,7 +5418,7 @@
       <c r="A52" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -5408,7 +5492,7 @@
       <c r="A53" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -5485,7 +5569,7 @@
       <c r="A54" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -5562,7 +5646,7 @@
       <c r="A55" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -5639,7 +5723,7 @@
       <c r="A56" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -5710,7 +5794,7 @@
       <c r="A57" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -5787,7 +5871,7 @@
       <c r="A58" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -5858,7 +5942,7 @@
       <c r="A59" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -5932,7 +6016,7 @@
       <c r="A60" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -6009,7 +6093,7 @@
       <c r="A61" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -6077,7 +6161,7 @@
       <c r="A62" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -6151,7 +6235,7 @@
       <c r="A63" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -6228,7 +6312,7 @@
       <c r="A64" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -6305,7 +6389,7 @@
       <c r="A65" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -6382,7 +6466,7 @@
       <c r="A66" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -6459,7 +6543,7 @@
       <c r="A67" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -6536,7 +6620,7 @@
       <c r="A68" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -6610,7 +6694,7 @@
       <c r="A69" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -6687,7 +6771,7 @@
       <c r="A70" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -6761,7 +6845,7 @@
       <c r="A71" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -6835,7 +6919,7 @@
       <c r="A72" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -6909,7 +6993,7 @@
       <c r="A73" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C73" s="0" t="s">
@@ -6989,7 +7073,7 @@
       <c r="A74" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C74" s="0" t="s">
@@ -7063,7 +7147,7 @@
       <c r="A75" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C75" s="0" t="s">
@@ -7140,7 +7224,7 @@
       <c r="A76" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -7214,10 +7298,10 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -7291,78 +7375,73 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="1" t="s">
+      <c r="E78" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H78" s="1" t="n">
+      <c r="H78" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O78" s="1" t="s">
+      <c r="I78" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N78" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O78" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="P78" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1" t="s">
+      <c r="S78" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="T78" s="1" t="s">
+      <c r="T78" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="U78" s="1" t="s">
+      <c r="U78" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="V78" s="1" t="s">
+      <c r="V78" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1" t="n">
+      <c r="X78" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="Y78" s="1" t="n">
+      <c r="Y78" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="Z78" s="1" t="n">
+      <c r="Z78" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="AA78" s="1" t="n">
+      <c r="AA78" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="AB78" s="1" t="n">
+      <c r="AB78" s="0" t="n">
         <v>33</v>
       </c>
       <c r="AG78" s="0" t="n">
@@ -7373,10 +7452,10 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -7450,10 +7529,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="0" t="s">
@@ -7527,10 +7606,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C81" s="0" t="s">
@@ -7613,10 +7692,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -7690,10 +7769,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -7767,10 +7846,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -7841,10 +7920,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -7921,10 +8000,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -7995,10 +8074,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -8069,10 +8148,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -8143,10 +8222,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -8217,10 +8296,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C90" s="0" t="s">
@@ -8291,10 +8370,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C91" s="0" t="s">
@@ -8365,10 +8444,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C92" s="0" t="s">
@@ -8442,10 +8521,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C93" s="0" t="s">
@@ -8460,7 +8539,7 @@
       <c r="F93" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="0" t="s">
         <v>339</v>
       </c>
       <c r="H93" s="0" t="n">
@@ -8525,10 +8604,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C94" s="0" t="s">
@@ -8543,7 +8622,7 @@
       <c r="F94" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="0" t="s">
         <v>339</v>
       </c>
       <c r="H94" s="0" t="n">
@@ -8602,10 +8681,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C95" s="0" t="s">
@@ -8620,7 +8699,7 @@
       <c r="F95" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G95" s="0" t="s">
         <v>339</v>
       </c>
       <c r="H95" s="0" t="n">
@@ -8679,10 +8758,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C96" s="0" t="s">
@@ -8697,7 +8776,7 @@
       <c r="F96" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G96" s="0" t="s">
         <v>339</v>
       </c>
       <c r="H96" s="0" t="n">
@@ -8756,10 +8835,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C97" s="0" t="s">
@@ -8830,10 +8909,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C98" s="0" t="s">
@@ -8904,10 +8983,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C99" s="0" t="s">
@@ -8922,7 +9001,7 @@
       <c r="F99" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="0" t="s">
         <v>339</v>
       </c>
       <c r="H99" s="0" t="n">
@@ -8978,10 +9057,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C100" s="0" t="s">
@@ -9052,10 +9131,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -9132,10 +9211,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -9206,10 +9285,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C103" s="0" t="s">
@@ -9283,10 +9362,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C104" s="0" t="s">
@@ -9360,10 +9439,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C105" s="0" t="s">
@@ -9440,10 +9519,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C106" s="0" t="s">
@@ -9526,10 +9605,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C107" s="0" t="s">
@@ -9612,10 +9691,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C108" s="0" t="s">
@@ -9668,10 +9747,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C109" s="0" t="s">
@@ -9724,10 +9803,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C110" s="0" t="s">
@@ -9780,10 +9859,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C111" s="0" t="s">
@@ -9836,10 +9915,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C112" s="0" t="s">
@@ -9892,10 +9971,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C113" s="0" t="s">
@@ -9951,10 +10030,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C114" s="0" t="s">
@@ -10010,10 +10089,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C115" s="0" t="s">
@@ -10045,10 +10124,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C116" s="0" t="s">
@@ -10080,10 +10159,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C117" s="0" t="s">
@@ -10115,10 +10194,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C118" s="0" t="s">
@@ -10150,10 +10229,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C119" s="0" t="s">
@@ -10188,10 +10267,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C120" s="0" t="s">
@@ -10226,10 +10305,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C121" s="0" t="s">
@@ -10264,10 +10343,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C122" s="0" t="s">
@@ -10302,10 +10381,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="0" t="s">
@@ -10340,10 +10419,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C124" s="0" t="s">
@@ -10378,10 +10457,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C125" s="0" t="s">
@@ -10413,10 +10492,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C126" s="0" t="s">
@@ -10451,7 +10530,7 @@
       <c r="A127" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C127" s="0" t="s">
@@ -10522,10 +10601,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C128" s="0" t="s">
@@ -10593,10 +10672,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C129" s="0" t="s">
@@ -10667,10 +10746,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C130" s="0" t="s">
@@ -10738,10 +10817,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C131" s="0" t="s">
@@ -10812,10 +10891,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C132" s="0" t="s">
@@ -10877,10 +10956,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C133" s="0" t="s">
@@ -10945,10 +11024,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C134" s="0" t="s">
@@ -11022,10 +11101,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C135" s="0" t="s">
@@ -11087,10 +11166,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C136" s="0" t="s">
@@ -11155,10 +11234,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C137" s="0" t="s">
@@ -11223,10 +11302,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C138" s="0" t="s">
@@ -11294,10 +11373,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C139" s="0" t="s">
@@ -11365,10 +11444,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C140" s="0" t="s">
@@ -11436,10 +11515,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C141" s="0" t="s">
@@ -11504,10 +11583,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C142" s="0" t="s">
@@ -11572,10 +11651,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C143" s="0" t="s">
@@ -11646,10 +11725,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C144" s="0" t="s">
@@ -11720,10 +11799,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C145" s="0" t="s">
@@ -11794,10 +11873,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C146" s="0" t="s">
@@ -11868,10 +11947,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C147" s="0" t="s">
@@ -11939,10 +12018,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C148" s="0" t="s">
@@ -12007,10 +12086,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C149" s="0" t="s">
@@ -12078,10 +12157,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C150" s="0" t="s">
@@ -12146,10 +12225,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C151" s="0" t="s">
@@ -12217,10 +12296,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C152" s="0" t="s">
@@ -12288,10 +12367,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C153" s="0" t="s">
@@ -12362,10 +12441,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C154" s="0" t="s">
@@ -12433,10 +12512,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C155" s="0" t="s">
@@ -12501,10 +12580,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C156" s="0" t="s">
@@ -12575,10 +12654,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C157" s="0" t="s">
@@ -12643,10 +12722,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C158" s="0" t="s">
@@ -12717,10 +12796,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C159" s="0" t="s">
@@ -12785,10 +12864,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C160" s="0" t="s">
@@ -12859,10 +12938,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C161" s="0" t="s">
@@ -12924,6 +13003,2981 @@
       </c>
       <c r="AH161" s="0" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J162" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N162" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R162" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U162" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V162" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X162" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y162" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z162" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AA162" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AB162" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AG162" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH162" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E163" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I163" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J163" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L163" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N163" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R163" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U163" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V163" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X163" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y163" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z163" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA163" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB163" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG163" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH163" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E164" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I164" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J164" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L164" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N164" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O164" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R164" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U164" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V164" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X164" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y164" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z164" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA164" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB164" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG164" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH164" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E165" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I165" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J165" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L165" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N165" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O165" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R165" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U165" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V165" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="W165" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="X165" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y165" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="Z165" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA165" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB165" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG165" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH165" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E166" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I166" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J166" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L166" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M166" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N166" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O166" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R166" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U166" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V166" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="W166" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X166" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y166" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z166" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA166" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB166" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH166" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK166" s="0" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E167" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I167" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J167" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L167" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M167" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N167" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O167" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R167" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U167" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V167" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="W167" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X167" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y167" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z167" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA167" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB167" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH167" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK167" s="0" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I168" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J168" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L168" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M168" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N168" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R168" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S168" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T168" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U168" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="V168" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W168" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X168" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y168" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z168" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA168" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB168" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG168" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH168" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E169" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G169" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I169" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J169" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L169" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M169" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N169" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R169" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S169" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T169" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="U169" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="V169" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="W169" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X169" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y169" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z169" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA169" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB169" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG169" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH169" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I170" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J170" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L170" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N170" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="R170" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U170" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V170" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W170" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X170" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y170" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z170" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA170" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB170" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG170" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH170" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N171" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O171" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R171" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U171" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="V171" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="W171" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X171" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y171" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z171" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA171" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB171" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG171" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH171" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E172" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I172" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J172" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L172" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M172" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N172" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R172" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U172" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V172" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="W172" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="X172" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y172" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z172" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA172" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB172" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG172" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH172" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E173" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L173" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N173" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R173" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U173" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="V173" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="W173" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="X173" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y173" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z173" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA173" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB173" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG173" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH173" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E174" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I174" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J174" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L174" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N174" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O174" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R174" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="T174" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="U174" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V174" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="W174" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z174" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA174" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB174" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG174" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH174" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN174" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E175" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I175" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J175" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L175" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N175" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O175" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R175" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U175" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V175" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="W175" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="X175" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y175" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z175" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA175" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB175" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG175" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH175" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E176" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I176" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J176" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L176" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N176" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O176" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R176" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="S176" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T176" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U176" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V176" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="W176" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="X176" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y176" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z176" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA176" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB176" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG176" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH176" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E177" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G177" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I177" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J177" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L177" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N177" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O177" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R177" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U177" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V177" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="W177" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X177" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y177" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z177" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA177" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB177" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG177" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH177" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N178" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O178" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R178" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U178" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="V178" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="W178" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X178" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y178" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z178" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA178" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB178" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG178" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH178" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D179" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E179" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I179" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J179" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L179" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N179" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O179" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R179" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U179" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V179" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="W179" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X179" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y179" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z179" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA179" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB179" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH179" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK179" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E180" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I180" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J180" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L180" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N180" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R180" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U180" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="V180" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W180" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X180" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y180" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z180" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA180" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB180" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG180" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH180" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E181" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I181" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J181" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L181" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N181" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R181" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U181" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="V181" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W181" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X181" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y181" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z181" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA181" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB181" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG181" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH181" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E182" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I182" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J182" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L182" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N182" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R182" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U182" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="V182" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W182" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X182" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y182" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z182" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA182" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB182" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG182" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH182" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I183" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J183" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L183" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N183" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O183" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R183" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S183" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="T183" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="U183" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="V183" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="W183" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X183" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z183" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA183" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AB183" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AI183" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ183" s="0" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E184" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G184" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I184" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J184" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L184" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M184" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N184" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R184" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U184" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="V184" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="W184" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X184" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y184" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z184" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA184" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB184" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG184" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH184" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E185" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L185" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N185" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R185" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U185" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="V185" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="W185" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X185" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y185" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z185" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA185" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB185" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG185" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH185" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I186" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J186" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L186" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M186" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N186" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R186" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U186" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="V186" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W186" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X186" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y186" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z186" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA186" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB186" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG186" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH186" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E187" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I187" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J187" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L187" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M187" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N187" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R187" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S187" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T187" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="U187" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="V187" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="W187" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="X187" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y187" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="Z187" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA187" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB187" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG187" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH187" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E188" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I188" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J188" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L188" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M188" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N188" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O188" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R188" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U188" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="V188" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="W188" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X188" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y188" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z188" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA188" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AB188" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG188" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH188" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E189" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I189" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J189" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L189" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N189" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R189" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U189" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="V189" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="W189" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X189" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z189" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA189" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB189" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI189" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ189" s="0" t="n">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I190" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J190" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L190" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N190" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R190" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U190" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V190" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W190" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X190" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y190" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z190" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA190" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB190" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG190" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH190" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E191" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I191" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J191" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L191" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N191" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R191" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U191" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="V191" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="W191" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="X191" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y191" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z191" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA191" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB191" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG191" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH191" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E192" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I192" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J192" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L192" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N192" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R192" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U192" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V192" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W192" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X192" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y192" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z192" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA192" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB192" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG192" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH192" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E193" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I193" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J193" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L193" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N193" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R193" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U193" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V193" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="X193" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y193" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z193" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA193" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB193" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG193" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH193" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E194" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I194" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J194" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L194" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N194" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O194" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R194" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U194" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="V194" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="W194" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="X194" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y194" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z194" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA194" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB194" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG194" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH194" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E195" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I195" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J195" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L195" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N195" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O195" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R195" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U195" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V195" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="W195" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="X195" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y195" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z195" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA195" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB195" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG195" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH195" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E196" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I196" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J196" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K196" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L196" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N196" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="R196" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="U196" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V196" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="W196" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="X196" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y196" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="Z196" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA196" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB196" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG196" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH196" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E197" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N197" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O197" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R197" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S197" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T197" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="U197" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="V197" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="W197" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="X197" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y197" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z197" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA197" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB197" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG197" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH197" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E198" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G198" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I198" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J198" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L198" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N198" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O198" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="R198" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="S198" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T198" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U198" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="V198" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="W198" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="X198" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y198" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z198" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA198" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB198" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG198" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH198" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E199" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I199" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J199" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L199" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N199" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O199" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R199" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U199" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V199" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X199" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y199" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z199" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA199" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB199" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG199" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH199" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E200" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I200" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J200" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L200" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N200" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O200" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R200" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U200" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="V200" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="X200" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y200" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z200" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA200" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB200" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG200" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH200" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E201" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I201" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="J201" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K201" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L201" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N201" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O201" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R201" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U201" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="V201" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="X201" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y201" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z201" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA201" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB201" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AG201" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH201" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13088,6 +16142,46 @@
     <hyperlink ref="B159" r:id="rId158" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
     <hyperlink ref="B160" r:id="rId159" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
     <hyperlink ref="B161" r:id="rId160" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B162" r:id="rId161" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B163" r:id="rId162" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B164" r:id="rId163" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B165" r:id="rId164" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B166" r:id="rId165" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B167" r:id="rId166" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B168" r:id="rId167" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B169" r:id="rId168" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B170" r:id="rId169" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B171" r:id="rId170" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B172" r:id="rId171" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B173" r:id="rId172" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B174" r:id="rId173" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B175" r:id="rId174" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B176" r:id="rId175" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B177" r:id="rId176" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B178" r:id="rId177" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B179" r:id="rId178" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B180" r:id="rId179" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B181" r:id="rId180" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B182" r:id="rId181" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B183" r:id="rId182" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B184" r:id="rId183" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B185" r:id="rId184" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B186" r:id="rId185" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B187" r:id="rId186" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B188" r:id="rId187" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B189" r:id="rId188" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B190" r:id="rId189" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B191" r:id="rId190" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B192" r:id="rId191" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B193" r:id="rId192" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B194" r:id="rId193" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B195" r:id="rId194" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B196" r:id="rId195" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B197" r:id="rId196" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B198" r:id="rId197" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B199" r:id="rId198" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B200" r:id="rId199" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B201" r:id="rId200" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/data/items_deleted.xlsx
+++ b/data/items_deleted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3177" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3996" uniqueCount="503">
   <si>
     <t xml:space="preserve">creator_name</t>
   </si>
@@ -1406,6 +1406,129 @@
   </si>
   <si>
     <t xml:space="preserve">The Long Goodbye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnawing Hunger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Perdition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLO-10 Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient Gospel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckless Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arc Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flared Magwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heating Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felwinter’s Lie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Choke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stars in Shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Summoner (Adept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctic Haze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truthteller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fool’s Remedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Adder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ikelos_SR_V1.0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First In, Last Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial Needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brass Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Palindrome (Adept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottomless Grief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Third Axiom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrofuturist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Blazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vision of Confluence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finite Impactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Grip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrowed Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empty Vessel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compass Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragile Focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incandescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adagio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iota Draconis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysura Melo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punching Out</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1647,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA201"/>
+  <dimension ref="A1:BA251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A177" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B223" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N246" activeCellId="0" sqref="246:246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12427,6 +12550,18 @@
       <c r="AB153" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="AC153" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD153" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE153" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF153" s="0" t="n">
+        <v>75</v>
+      </c>
       <c r="AG153" s="0" t="n">
         <v>90</v>
       </c>
@@ -13516,6 +13651,18 @@
       <c r="AB168" s="0" t="n">
         <v>34</v>
       </c>
+      <c r="AC168" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD168" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE168" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF168" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="AG168" s="0" t="n">
         <v>900</v>
       </c>
@@ -13596,6 +13743,18 @@
       <c r="AB169" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="AC169" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD169" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE169" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF169" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="AG169" s="0" t="n">
         <v>900</v>
       </c>
@@ -13752,7 +13911,7 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -13826,7 +13985,7 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -13900,7 +14059,7 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -13942,6 +14101,9 @@
       <c r="R174" s="0" t="s">
         <v>137</v>
       </c>
+      <c r="S174" s="0" t="s">
+        <v>354</v>
+      </c>
       <c r="T174" s="0" t="s">
         <v>193</v>
       </c>
@@ -13963,6 +14125,18 @@
       <c r="AB174" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="AC174" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD174" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE174" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF174" s="0" t="n">
+        <v>63</v>
+      </c>
       <c r="AG174" s="0" t="n">
         <v>90</v>
       </c>
@@ -13977,7 +14151,7 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -14051,7 +14225,7 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -14126,6 +14300,18 @@
       <c r="AB176" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="AC176" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD176" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE176" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF176" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="AG176" s="0" t="n">
         <v>340</v>
       </c>
@@ -14134,7 +14320,7 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -14208,7 +14394,7 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -14282,7 +14468,7 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -14359,7 +14545,7 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -14430,7 +14616,7 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -14501,7 +14687,7 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -14572,7 +14758,7 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -14641,6 +14827,18 @@
       <c r="AB183" s="0" t="n">
         <v>62</v>
       </c>
+      <c r="AC183" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AD183" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE183" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF183" s="0" t="n">
+        <v>49</v>
+      </c>
       <c r="AI183" s="0" t="n">
         <v>35</v>
       </c>
@@ -14649,7 +14847,7 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -14723,7 +14921,7 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -14797,7 +14995,7 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -14871,7 +15069,7 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -14943,6 +15141,18 @@
       <c r="AB187" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="AC187" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AD187" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE187" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF187" s="0" t="n">
+        <v>52</v>
+      </c>
       <c r="AG187" s="0" t="n">
         <v>90</v>
       </c>
@@ -14951,7 +15161,7 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -15031,7 +15241,7 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -15099,7 +15309,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -15170,7 +15380,7 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -15241,7 +15451,7 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -15315,7 +15525,7 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -15383,7 +15593,7 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -15457,7 +15667,7 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -15531,7 +15741,7 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -15605,7 +15815,7 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -15677,6 +15887,18 @@
       <c r="AB197" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="AC197" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AD197" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE197" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF197" s="0" t="n">
+        <v>57</v>
+      </c>
       <c r="AG197" s="0" t="n">
         <v>260</v>
       </c>
@@ -15685,7 +15907,7 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -15757,6 +15979,18 @@
       <c r="AB198" s="0" t="n">
         <v>29</v>
       </c>
+      <c r="AC198" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD198" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE198" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF198" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="AG198" s="0" t="n">
         <v>900</v>
       </c>
@@ -15765,7 +15999,7 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -15836,7 +16070,7 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -15907,7 +16141,7 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="0" t="s">
         <v>393</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -15978,6 +16212,3982 @@
       </c>
       <c r="AH201" s="0" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E202" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I202" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J202" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L202" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N202" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O202" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R202" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S202" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="T202" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U202" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="V202" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X202" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y202" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z202" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA202" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB202" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AC202" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD202" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE202" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF202" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG202" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH202" s="0" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E203" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I203" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J203" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L203" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N203" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O203" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R203" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S203" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="T203" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U203" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="V203" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X203" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y203" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z203" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA203" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB203" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC203" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD203" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE203" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF203" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="AG203" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH203" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E204" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I204" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J204" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L204" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N204" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O204" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R204" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S204" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T204" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U204" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="V204" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X204" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y204" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z204" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA204" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB204" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC204" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AD204" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE204" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF204" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG204" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH204" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E205" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I205" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J205" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K205" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L205" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N205" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O205" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R205" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S205" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T205" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U205" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="V205" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X205" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y205" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z205" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AA205" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB205" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC205" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD205" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE205" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF205" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG205" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AH205" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E206" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I206" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J206" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L206" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N206" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O206" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R206" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S206" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="T206" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="U206" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="V206" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="X206" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y206" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z206" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA206" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AB206" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC206" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD206" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE206" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF206" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG206" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH206" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E207" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I207" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J207" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K207" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L207" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N207" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O207" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R207" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="S207" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="T207" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="U207" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="V207" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="X207" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="Z207" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA207" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB207" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC207" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD207" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE207" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF207" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI207" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ207" s="0" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E208" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I208" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J208" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L208" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N208" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O208" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R208" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U208" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V208" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="X208" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y208" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z208" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA208" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB208" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG208" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH208" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E209" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I209" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J209" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L209" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N209" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O209" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R209" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U209" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="V209" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W209" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X209" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y209" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z209" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA209" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB209" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG209" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH209" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E210" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I210" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J210" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K210" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L210" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N210" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O210" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R210" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="S210" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="T210" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U210" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V210" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X210" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y210" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z210" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA210" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB210" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG210" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH210" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E211" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I211" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J211" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L211" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M211" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N211" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O211" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R211" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="S211" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="T211" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U211" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="V211" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="W211" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="X211" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y211" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="Z211" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA211" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB211" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC211" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD211" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE211" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF211" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG211" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH211" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E212" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I212" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J212" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K212" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L212" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M212" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N212" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O212" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R212" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="T212" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U212" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V212" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X212" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y212" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z212" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA212" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB212" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC212" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD212" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE212" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF212" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG212" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH212" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E213" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I213" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J213" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K213" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L213" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M213" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N213" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O213" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R213" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U213" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V213" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="X213" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y213" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z213" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AA213" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB213" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG213" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="AH213" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E214" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I214" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J214" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L214" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N214" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O214" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R214" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U214" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="V214" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="W214" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X214" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y214" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z214" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA214" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB214" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG214" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="AH214" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E215" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I215" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J215" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L215" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N215" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O215" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R215" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U215" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V215" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="W215" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X215" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y215" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z215" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA215" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB215" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="AG215" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH215" s="0" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E216" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I216" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J216" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L216" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N216" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O216" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R216" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U216" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="V216" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="X216" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y216" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z216" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA216" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB216" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AG216" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="AH216" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E217" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I217" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J217" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L217" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N217" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O217" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="P217" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="S217" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T217" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="U217" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="V217" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X217" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y217" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z217" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA217" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB217" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG217" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH217" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E218" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I218" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J218" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K218" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L218" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N218" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O218" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R218" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="T218" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="U218" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V218" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z218" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA218" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AB218" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG218" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH218" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN218" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E219" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I219" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J219" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L219" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N219" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O219" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R219" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="T219" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U219" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V219" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X219" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y219" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z219" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA219" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB219" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG219" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH219" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E220" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I220" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J220" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L220" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N220" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O220" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R220" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U220" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V220" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="X220" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y220" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z220" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA220" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB220" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG220" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH220" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E221" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I221" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J221" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K221" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L221" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N221" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O221" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R221" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S221" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="U221" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V221" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="X221" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y221" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z221" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA221" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB221" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="AC221" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD221" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE221" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF221" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AG221" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH221" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E222" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I222" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J222" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L222" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N222" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O222" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R222" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U222" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V222" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="X222" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y222" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z222" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA222" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB222" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="AG222" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH222" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E223" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I223" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J223" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L223" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N223" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O223" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R223" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="T223" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U223" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="V223" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="X223" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y223" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z223" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA223" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB223" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC223" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AD223" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE223" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF223" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AG223" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH223" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I224" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J224" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L224" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N224" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O224" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R224" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U224" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="V224" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X224" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y224" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z224" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA224" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB224" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG224" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH224" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="D225" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E225" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G225" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I225" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J225" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K225" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L225" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N225" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O225" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R225" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U225" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V225" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="X225" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y225" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z225" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA225" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB225" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC225" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD225" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE225" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF225" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AG225" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH225" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E226" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G226" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I226" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J226" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L226" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N226" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O226" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R226" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U226" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="V226" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="X226" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z226" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AA226" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB226" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI226" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ226" s="0" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E227" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G227" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I227" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J227" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L227" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N227" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O227" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R227" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="S227" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T227" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U227" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="V227" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X227" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="Y227" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z227" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA227" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB227" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC227" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD227" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE227" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF227" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG227" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="AH227" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E228" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G228" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I228" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J228" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L228" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N228" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O228" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R228" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U228" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="V228" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="X228" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y228" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z228" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AA228" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB228" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG228" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH228" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L229" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N229" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O229" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R229" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S229" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T229" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="U229" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="V229" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X229" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y229" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="Z229" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AA229" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB229" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC229" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD229" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE229" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF229" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="AG229" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH229" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I230" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L230" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N230" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O230" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R230" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="S230" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T230" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="U230" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V230" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="W230" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="X230" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y230" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z230" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA230" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB230" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC230" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD230" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE230" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF230" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG230" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH230" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G231" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I231" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J231" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L231" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N231" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O231" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R231" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="S231" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T231" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="U231" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="V231" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X231" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y231" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z231" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA231" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB231" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC231" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AD231" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE231" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF231" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AG231" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH231" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E232" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I232" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J232" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K232" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L232" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N232" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O232" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R232" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U232" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="V232" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="X232" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y232" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z232" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA232" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB232" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AG232" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH232" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C233" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D233" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E233" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G233" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I233" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J233" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L233" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N233" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O233" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R233" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U233" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V233" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="X233" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y233" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z233" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA233" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB233" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG233" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH233" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E234" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G234" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I234" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J234" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L234" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N234" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O234" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R234" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U234" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="V234" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X234" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y234" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z234" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA234" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB234" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="AG234" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH234" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E235" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N235" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O235" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R235" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="S235" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T235" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U235" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="V235" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="X235" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y235" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z235" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AA235" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB235" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC235" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD235" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE235" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF235" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG235" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH235" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D236" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E236" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G236" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I236" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J236" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K236" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L236" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N236" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O236" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="R236" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U236" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="V236" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X236" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y236" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z236" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AA236" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB236" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG236" s="0" t="n">
+        <v>540</v>
+      </c>
+      <c r="AH236" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E237" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G237" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I237" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J237" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L237" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N237" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O237" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R237" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U237" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="V237" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="X237" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y237" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z237" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA237" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB237" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AG237" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH237" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E238" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I238" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J238" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K238" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L238" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N238" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O238" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="R238" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U238" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="V238" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="X238" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y238" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z238" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA238" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB238" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG238" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH238" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E239" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G239" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I239" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J239" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L239" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N239" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O239" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R239" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="T239" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="U239" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="V239" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="X239" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y239" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="Z239" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA239" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB239" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC239" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD239" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE239" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF239" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AG239" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH239" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E240" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G240" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I240" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J240" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K240" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L240" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N240" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O240" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R240" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="S240" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="T240" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="U240" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="V240" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X240" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y240" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z240" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AA240" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB240" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC240" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD240" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE240" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF240" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="AG240" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="AH240" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D241" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E241" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G241" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I241" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J241" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L241" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N241" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O241" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R241" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="T241" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="U241" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V241" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="W241" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z241" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA241" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="AB241" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG241" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH241" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN241" s="0" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C242" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E242" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H242" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I242" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J242" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L242" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N242" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O242" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R242" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="U242" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="V242" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z242" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA242" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB242" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG242" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH242" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM242" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN242" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E243" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G243" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I243" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J243" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L243" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N243" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O243" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R243" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="T243" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="U243" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="V243" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z243" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA243" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB243" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG243" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH243" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C244" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E244" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H244" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I244" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J244" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L244" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N244" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O244" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R244" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U244" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="V244" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="W244" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X244" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y244" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z244" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA244" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB244" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="AG244" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH244" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C245" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E245" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I245" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J245" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L245" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N245" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O245" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R245" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="U245" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="V245" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="W245" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="X245" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y245" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Z245" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA245" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB245" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG245" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH245" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C246" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E246" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G246" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I246" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J246" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K246" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L246" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N246" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O246" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R246" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="T246" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="U246" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="V246" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="X246" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y246" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="Z246" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA246" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB246" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC246" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD246" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE246" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF246" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH246" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK246" s="0" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E247" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I247" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J247" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L247" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N247" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O247" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R247" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U247" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="V247" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="X247" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y247" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z247" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA247" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB247" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG247" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH247" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E248" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="G248" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I248" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J248" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L248" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N248" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O248" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R248" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="U248" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="V248" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="X248" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y248" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z248" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA248" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB248" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG248" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="AH248" s="0" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E249" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I249" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J249" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K249" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L249" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N249" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O249" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R249" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="U249" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="V249" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="X249" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y249" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z249" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA249" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB249" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG249" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="AH249" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D250" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E250" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I250" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J250" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L250" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N250" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O250" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R250" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U250" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="V250" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="W250" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="X250" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y250" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z250" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="AA250" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB250" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG250" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH250" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C251" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E251" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G251" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I251" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J251" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L251" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="N251" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="O251" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="R251" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="U251" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="V251" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="X251" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y251" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z251" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA251" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB251" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AG251" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH251" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -16182,6 +20392,56 @@
     <hyperlink ref="B199" r:id="rId198" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
     <hyperlink ref="B200" r:id="rId199" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
     <hyperlink ref="B201" r:id="rId200" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B202" r:id="rId201" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B203" r:id="rId202" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B204" r:id="rId203" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B205" r:id="rId204" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B206" r:id="rId205" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B207" r:id="rId206" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B208" r:id="rId207" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B209" r:id="rId208" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B210" r:id="rId209" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B211" r:id="rId210" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B212" r:id="rId211" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B213" r:id="rId212" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B214" r:id="rId213" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B215" r:id="rId214" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B216" r:id="rId215" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B217" r:id="rId216" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B218" r:id="rId217" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B219" r:id="rId218" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B220" r:id="rId219" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B221" r:id="rId220" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B222" r:id="rId221" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B223" r:id="rId222" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B224" r:id="rId223" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B225" r:id="rId224" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B226" r:id="rId225" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B227" r:id="rId226" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B228" r:id="rId227" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B229" r:id="rId228" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B230" r:id="rId229" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B231" r:id="rId230" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B232" r:id="rId231" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B233" r:id="rId232" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B234" r:id="rId233" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B235" r:id="rId234" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B236" r:id="rId235" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B237" r:id="rId236" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B238" r:id="rId237" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B239" r:id="rId238" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B240" r:id="rId239" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B241" r:id="rId240" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B242" r:id="rId241" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B243" r:id="rId242" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B244" r:id="rId243" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B245" r:id="rId244" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B246" r:id="rId245" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B247" r:id="rId246" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B248" r:id="rId247" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B249" r:id="rId248" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B250" r:id="rId249" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
+    <hyperlink ref="B251" r:id="rId250" display="https://www.youtube.com/watch?v=YkVa7_QfHgs"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
